--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>704.7928408068799</v>
+        <v>6.81609601405511</v>
       </c>
       <c r="R2">
-        <v>6343.13556726192</v>
+        <v>61.34486412649599</v>
       </c>
       <c r="S2">
-        <v>0.2236982417313373</v>
+        <v>0.003164687448521511</v>
       </c>
       <c r="T2">
-        <v>0.2236982417313373</v>
+        <v>0.003164687448521511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
-        <v>166.2153167788729</v>
+        <v>2.033964008376889</v>
       </c>
       <c r="R3">
-        <v>1495.937851009856</v>
+        <v>18.305676075392</v>
       </c>
       <c r="S3">
-        <v>0.05275603263745318</v>
+        <v>0.0009443617511815757</v>
       </c>
       <c r="T3">
-        <v>0.05275603263745318</v>
+        <v>0.0009443617511815758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>45.81805261385732</v>
+        <v>0.7181306416042222</v>
       </c>
       <c r="R4">
-        <v>412.3624735247159</v>
+        <v>6.463175774438001</v>
       </c>
       <c r="S4">
-        <v>0.0145424544856894</v>
+        <v>0.0003334253248776502</v>
       </c>
       <c r="T4">
-        <v>0.0145424544856894</v>
+        <v>0.0003334253248776503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>1441.58969056144</v>
+        <v>1139.314596064051</v>
       </c>
       <c r="R5">
-        <v>12974.30721505296</v>
+        <v>10253.83136457646</v>
       </c>
       <c r="S5">
-        <v>0.4575544194056018</v>
+        <v>0.5289794326028264</v>
       </c>
       <c r="T5">
-        <v>0.4575544194056019</v>
+        <v>0.5289794326028265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
         <v>339.9783215838364</v>
@@ -818,10 +818,10 @@
         <v>3059.804894254528</v>
       </c>
       <c r="S6">
-        <v>0.1079076692635056</v>
+        <v>0.157850641315376</v>
       </c>
       <c r="T6">
-        <v>0.1079076692635056</v>
+        <v>0.157850641315376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>93.71666178407865</v>
+        <v>120.0359736971741</v>
       </c>
       <c r="R7">
-        <v>843.4499560567079</v>
+        <v>1080.323763274567</v>
       </c>
       <c r="S7">
-        <v>0.02974526874879709</v>
+        <v>0.05573224592892799</v>
       </c>
       <c r="T7">
-        <v>0.02974526874879709</v>
+        <v>0.055732245928928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N8">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O8">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P8">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q8">
-        <v>275.61321951632</v>
+        <v>388.1709626282613</v>
       </c>
       <c r="R8">
-        <v>2480.51897564688</v>
+        <v>3493.538663654352</v>
       </c>
       <c r="S8">
-        <v>0.08747846038437233</v>
+        <v>0.1802263012107034</v>
       </c>
       <c r="T8">
-        <v>0.08747846038437233</v>
+        <v>0.1802263012107034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q9">
-        <v>64.9994380446649</v>
+        <v>115.8325477597227</v>
       </c>
       <c r="R9">
-        <v>584.994942401984</v>
+        <v>1042.492929837504</v>
       </c>
       <c r="S9">
-        <v>0.0206305444128379</v>
+        <v>0.05378061125746621</v>
       </c>
       <c r="T9">
-        <v>0.0206305444128379</v>
+        <v>0.05378061125746622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N10">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q10">
-        <v>17.91740815416933</v>
+        <v>40.89693893242567</v>
       </c>
       <c r="R10">
-        <v>161.256673387524</v>
+        <v>368.072450391831</v>
       </c>
       <c r="S10">
-        <v>0.005686908930405356</v>
+        <v>0.01898829316011918</v>
       </c>
       <c r="T10">
-        <v>0.005686908930405354</v>
+        <v>0.01898829316011918</v>
       </c>
     </row>
   </sheetData>
